--- a/Excel/副本表.xlsx
+++ b/Excel/副本表.xlsx
@@ -18,8 +18,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1=单人
+2=组队
+3=混合</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>int</t>
   </si>
@@ -132,6 +170,62 @@
   </si>
   <si>
     <t>(1,2)|(3,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyTimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekTimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日进入次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周进入次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,7 +233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +247,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -457,34 +566,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -493,27 +604,36 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -524,129 +644,174 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>10</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H5">
+      <c r="I5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>20</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>100</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H6">
+      <c r="I6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6">
         <v>600</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -654,5 +819,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>